--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -949,7 +949,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1110,6 +1110,7 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5997,17 +5998,17 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B110" s="57" t="s">
+      <c r="B110" s="58" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="57" t="s">
+      <c r="B111" s="58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6015,10 +6016,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>

--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -535,7 +535,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".</t>
   </si>
   <si>
-    <t>Source: Authors calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 18/11/2020), UNCTAD B2C E-Commerce Index Reports (2015-2019).</t>
+    <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 18/11/2020), UNCTAD B2C E-Commerce Index Reports (2015-2019).</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2021</t>

--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -496,7 +496,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab14.xlsx
+++ b/AfDD_2021_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
